--- a/S2_validation_richard_dataset/NEONDHPReprocessing.xlsx
+++ b/S2_validation_richard_dataset/NEONDHPReprocessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfern\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BD026D-B5F5-4EE7-B26B-AFDE9470C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80B9E87-AB92-4FF5-8A9B-239414D068BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5E5A5C68-230E-4BC5-9D8B-A4DBA6823C14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ABBY</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>This file contains reprocessed results for ABBY and Windriver overstory DHP using CANEYEV6.495.  Only April 2019 data is processed.  Only overstory is processed. Richard Fernandes May 28, 2024</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>PUUM</t>
+  </si>
+  <si>
+    <t>TEAK02</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -407,20 +419,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E06374-39B7-42F3-9504-4A07AD1A4A10}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -442,8 +457,11 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -475,8 +493,12 @@
         <f>D3-E3</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3">
+        <f>J3/D3</f>
+        <v>0.50847457627118642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -505,11 +527,15 @@
         <v>0.12</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J8" si="0">D4-E4</f>
+        <f t="shared" ref="J4:J9" si="0">D4-E4</f>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="1">J4/D4</f>
+        <v>0.83653846153846145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -541,8 +567,12 @@
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.72602739726027399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -574,8 +604,12 @@
         <f t="shared" si="0"/>
         <v>3.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.81984334203655351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -607,8 +641,12 @@
         <f t="shared" si="0"/>
         <v>2.5599999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.72521246458923505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -639,6 +677,228 @@
       <c r="J8">
         <f t="shared" si="0"/>
         <v>2.88</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.75392670157068065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E9">
+        <v>1.42</v>
+      </c>
+      <c r="F9">
+        <v>0.77</v>
+      </c>
+      <c r="G9">
+        <v>0.53</v>
+      </c>
+      <c r="H9">
+        <v>0.62</v>
+      </c>
+      <c r="I9">
+        <v>0.45</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.67653758542141229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0.75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0.71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44341</v>
+      </c>
+      <c r="C12">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>3.11</v>
+      </c>
+      <c r="E12">
+        <v>1.03</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.47</v>
+      </c>
+      <c r="H12">
+        <v>0.26</v>
+      </c>
+      <c r="I12">
+        <v>0.41</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="2">D12-E12</f>
+        <v>2.08</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12" si="3">J12/D12</f>
+        <v>0.66881028938906761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44341</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E13">
+        <v>1.73</v>
+      </c>
+      <c r="F13">
+        <v>0.67</v>
+      </c>
+      <c r="G13">
+        <v>0.34</v>
+      </c>
+      <c r="H13">
+        <v>0.78</v>
+      </c>
+      <c r="I13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="4">D13-E13</f>
+        <v>3.1300000000000003</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="5">J13/D13</f>
+        <v>0.6440329218106996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44341</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>1.55</v>
+      </c>
+      <c r="E14">
+        <v>1.22</v>
+      </c>
+      <c r="F14">
+        <v>0.42</v>
+      </c>
+      <c r="G14">
+        <v>0.35</v>
+      </c>
+      <c r="H14">
+        <v>0.26</v>
+      </c>
+      <c r="I14">
+        <v>0.24</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.21290322580645166</v>
       </c>
     </row>
   </sheetData>

--- a/S2_validation_richard_dataset/NEONDHPReprocessing.xlsx
+++ b/S2_validation_richard_dataset/NEONDHPReprocessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfern\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80B9E87-AB92-4FF5-8A9B-239414D068BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B02BE-1574-4A21-9EF5-9656888C9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5E5A5C68-230E-4BC5-9D8B-A4DBA6823C14}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>ABBY</t>
   </si>
   <si>
-    <t>WR</t>
-  </si>
-  <si>
     <t>PAI OVER</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>WAI OVER</t>
   </si>
   <si>
-    <t>This file contains reprocessed results for ABBY and Windriver overstory DHP using CANEYEV6.495.  Only April 2019 data is processed.  Only overstory is processed. Richard Fernandes May 28, 2024</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -67,6 +61,57 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>PLOT_ID</t>
+  </si>
+  <si>
+    <t>ABBY_067</t>
+  </si>
+  <si>
+    <t>ABBY_068</t>
+  </si>
+  <si>
+    <t>ABBY_069</t>
+  </si>
+  <si>
+    <t>WREF_082</t>
+  </si>
+  <si>
+    <t>WREF_078</t>
+  </si>
+  <si>
+    <t>WREF_088</t>
+  </si>
+  <si>
+    <t>PUUM_010</t>
+  </si>
+  <si>
+    <t>PUUM_039</t>
+  </si>
+  <si>
+    <t>PUUM_041</t>
+  </si>
+  <si>
+    <t>TEAK_047</t>
+  </si>
+  <si>
+    <t>TEAK_057</t>
+  </si>
+  <si>
+    <t>TEAK_046</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>WREF</t>
+  </si>
+  <si>
+    <t>This file contains reprocessed results for AENF and DBF NEON sites using CANEYEV6.495.  Only April-May  2019 a2020 data is processed. Null indicates unsuccessful results.  Only overstory is processed. Richard Fernandes May 28, 2024</t>
   </si>
 </sst>
 </file>
@@ -422,7 +467,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -432,33 +477,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -468,8 +522,8 @@
       <c r="B3" s="1">
         <v>43572</v>
       </c>
-      <c r="C3">
-        <v>67</v>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1.18</v>
@@ -505,8 +559,8 @@
       <c r="B4" s="1">
         <v>43572</v>
       </c>
-      <c r="C4">
-        <v>68</v>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
         <v>1.04</v>
@@ -542,8 +596,8 @@
       <c r="B5" s="1">
         <v>43572</v>
       </c>
-      <c r="C5">
-        <v>69</v>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.73</v>
@@ -574,13 +628,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>43579</v>
       </c>
-      <c r="C6">
-        <v>78</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3.83</v>
@@ -611,13 +665,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>43579</v>
       </c>
-      <c r="C7">
-        <v>82</v>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3.53</v>
@@ -648,13 +702,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>43579</v>
       </c>
-      <c r="C8">
-        <v>88</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8">
         <v>3.82</v>
@@ -685,13 +739,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>43972</v>
       </c>
-      <c r="C9">
-        <v>10</v>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
         <v>4.3899999999999997</v>
@@ -722,83 +776,83 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>43972</v>
       </c>
-      <c r="C10">
-        <v>39</v>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1.1399999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>0.17499999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>43972</v>
       </c>
-      <c r="C11">
-        <v>41</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11">
         <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0.75</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>0.71</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>44341</v>
       </c>
-      <c r="C12">
-        <v>47</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12">
         <v>3.11</v>
@@ -829,13 +883,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>44341</v>
       </c>
-      <c r="C13">
-        <v>57</v>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13">
         <v>4.8600000000000003</v>
@@ -866,13 +920,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>44341</v>
       </c>
-      <c r="C14">
-        <v>46</v>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1.55</v>
